--- a/文档/火车票管理系统 开发进度.xlsx
+++ b/文档/火车票管理系统 开发进度.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\TicketSystem\文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0999208-CD98-46FA-85FD-2555B79D2312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>火车票管理系统 开发进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,54 +52,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端与后端逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userman_inquire.php（用户信息查询）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userman_modify_profile.php（用户信息修改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listener.cpp(exe)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.php(包括session，cookie)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout.php(包括session，cookie销毁)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user-avatar.php（右上角用户名显示）已知的bug：sessionid不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write_sidebar.js(侧边栏显示)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>周聪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端与后端逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userman.html（用户信息查询修改）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userman_inquire.php（用户信息查询）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userman_modify_profile.php（用户信息修改）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listener.cpp(exe)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.php(包括session，cookie)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logout.php(包括session，cookie销毁)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user-avatar.php（右上角用户名显示）已知的bug：sessionid不变</t>
+    <t>userman.html/js（用户信息查询修改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useradd.html/js（添加新用户）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useradd.php（添加新用户）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车次操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainadd.html/js（添加车次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainadd.php（添加车次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traininquire.html/js（查询车次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traininquire.php（查询车次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainrelease.html/js（发布车次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainrelease.php（发布车次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traindelete.html/js（删除车次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traindelete.php（删除车次）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,14 +226,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -171,8 +245,121 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>145935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1004625-750C-4134-AD22-5C838B6C6BFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8896350" y="428624"/>
+          <a:ext cx="6305550" cy="5146561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07BF5A0-CC7F-43B2-9E9B-F53A9BE3FB84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="5676900"/>
+          <a:ext cx="6429375" cy="3867150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -218,7 +405,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,9 +438,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,6 +490,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,11 +682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -473,20 +694,20 @@
     <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="61.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -498,164 +719,249 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="D9" s="4">
         <v>5.5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1" t="s">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A18:B18"/>
+  <mergeCells count="7">
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="A3:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -668,7 +974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/文档/火车票管理系统 开发进度.xlsx
+++ b/文档/火车票管理系统 开发进度.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\TicketSystem\文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0999208-CD98-46FA-85FD-2555B79D2312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="2775" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>火车票管理系统 开发进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userman.html/js（用户信息查询修改）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>useradd.html/js（添加新用户）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,14 +146,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车票操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>traindelete.php（删除车次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticketinquire.html/js（查询车票）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticketinquire.php（查询车票）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickettransfer.html/js(查询换乘信息)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickettransfer.php(查询换乘信息)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticketbuy.html/js（购买车票）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticketbuy.php（购买车票）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket_query_order（查询购票信息）（包含在userman中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket_query_order.php（查询购票信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refund_ticket（退票）（包含在userman中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refund_ticket.php（退票）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6  5.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userman.html/js（用户信息查询修改，包含了ticket_query_order和refund_ticket）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5  5.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,12 +294,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,9 +314,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -257,22 +338,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>145935</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>41160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1004625-750C-4134-AD22-5C838B6C6BFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1004625-750C-4134-AD22-5C838B6C6BFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -295,7 +376,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8896350" y="428624"/>
+          <a:off x="10610850" y="495299"/>
           <a:ext cx="6305550" cy="5146561"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -318,22 +399,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07BF5A0-CC7F-43B2-9E9B-F53A9BE3FB84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D07BF5A0-CC7F-43B2-9E9B-F53A9BE3FB84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -349,7 +430,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8972550" y="5676900"/>
+          <a:off x="10677525" y="5600700"/>
           <a:ext cx="6429375" cy="3867150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -405,7 +486,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,26 +519,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,23 +554,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,32 +729,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="78.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -719,239 +766,394 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5" t="s">
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D41" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A29:B29"/>
+  <mergeCells count="8">
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E3:E12"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B20"/>
-    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="A3:A34"/>
+    <mergeCell ref="B21:B30"/>
+    <mergeCell ref="E3:E30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -961,7 +1163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -974,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/文档/火车票管理系统 开发进度.xlsx
+++ b/文档/火车票管理系统 开发进度.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\TicketSystem\文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDE7EB9-AF2B-4523-BD6F-7D3E3BAC7F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2775" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>火车票管理系统 开发进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>listener.cpp(exe)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login.php(包括session，cookie)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,13 +241,21 @@
   </si>
   <si>
     <t>5.5  5.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listener.cpp(exe) 已为clion和cmakelist提供支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,14 +317,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -353,7 +363,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1004625-750C-4134-AD22-5C838B6C6BFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1004625-750C-4134-AD22-5C838B6C6BFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -414,7 +424,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D07BF5A0-CC7F-43B2-9E9B-F53A9BE3FB84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07BF5A0-CC7F-43B2-9E9B-F53A9BE3FB84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -486,7 +496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,9 +529,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,6 +581,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -729,11 +773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -746,15 +790,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -767,382 +811,384 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3" t="s">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="4"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="4"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="5"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="4"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>49</v>
+      <c r="D34" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D35" s="6"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D36" s="6"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D37" s="6"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D39" s="6"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D40" s="6"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D41" s="6"/>
+      <c r="D41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1163,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1176,7 +1222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/文档/火车票管理系统 开发进度.xlsx
+++ b/文档/火车票管理系统 开发进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\TicketSystem\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDE7EB9-AF2B-4523-BD6F-7D3E3BAC7F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24A2B8D-B435-4C86-A050-47717B9DA4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>火车票管理系统 开发进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>login.php(包括session，cookie)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>logout.php(包括session，cookie销毁)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>trainadd.html/js（添加车次）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>trainadd.php（添加车次）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,19 +228,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userman.html/js（用户信息查询修改，包含了ticket_query_order和refund_ticket）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.5  5.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>listener.cpp(exe) 已为clion和cmakelist提供支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5  6.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端独立版本 main.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.js(新增用js控制html表单，前端过滤空格等异常字符)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5  5.21  6.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userman.html/js（用户信息查询修改，包含了ticket_query_order和refund_ticket）（6.10新增滑动效果）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.cpp为解决utf8问题转为linux平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.12  6.11  6.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.php(包括session，cookie)（6.12为移动端提供支持）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6  6.10  6.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainadd.html/js（添加车次） （6.11新增图形化添加页面，js完全控制表单）（6.16修复清空的bug，确保动态站点不会出现问题）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,15 +812,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="78.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="113.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.75" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -811,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -819,16 +855,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -840,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -848,10 +884,10 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -859,10 +895,10 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -870,34 +906,34 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -905,10 +941,10 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -916,10 +952,10 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -927,34 +963,34 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -962,10 +998,10 @@
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -973,10 +1009,10 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -984,10 +1020,10 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -995,10 +1031,10 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -1006,10 +1042,10 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -1017,34 +1053,34 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -1052,10 +1088,10 @@
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -1063,10 +1099,10 @@
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -1074,10 +1110,10 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -1085,10 +1121,10 @@
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -1096,10 +1132,10 @@
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E27" s="5"/>
     </row>
@@ -1107,10 +1143,10 @@
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="5"/>
     </row>
@@ -1118,10 +1154,10 @@
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="E29" s="5"/>
     </row>
@@ -1129,16 +1165,22 @@
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -1151,13 +1193,13 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -1175,31 +1217,45 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D39" s="4"/>
-    </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A38:B40"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B20"/>
     <mergeCell ref="A3:A34"/>
-    <mergeCell ref="B21:B30"/>
     <mergeCell ref="E3:E30"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B4:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/火车票管理系统 开发进度.xlsx
+++ b/文档/火车票管理系统 开发进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\TicketSystem\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24A2B8D-B435-4C86-A050-47717B9DA4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD62E2D-6A91-403E-A377-404400416E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="3615" windowWidth="19710" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>火车票管理系统 开发进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,26 @@
   </si>
   <si>
     <t>trainadd.html/js（添加车次） （6.11新增图形化添加页面，js完全控制表单）（6.16修复清空的bug，确保动态站点不会出现问题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.php socket扩容！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. tranfer 重写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. train inquire 阶梯表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 购买车票 今日以前</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,13 +830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
@@ -1245,6 +1265,31 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D41" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C45" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C46" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C48" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
